--- a/downloaded_files/EECS112_Tutorial-35291.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35291.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -169,15 +169,6 @@
   </x:si>
   <x:si>
     <x:t>Lojine Hany Mohamed Adel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1162125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مايكل توفيق حنا سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michael Tawfik Hanna Soliman</x:t>
   </x:si>
   <x:si>
     <x:t>1220273</x:t>
@@ -320,7 +311,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -620,7 +611,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -630,7 +621,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.230625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.530625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1219,7 +1210,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45916.7063430903</x:v>
+        <x:v>45907.5145669792</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.5145669792</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1300,38 +1291,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45907.6651647801</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35291.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35291.xlsx
@@ -111,15 +111,6 @@
     <x:t>Salma Amr Ahmed Youssef Elsherbiny</x:t>
   </x:si>
   <x:si>
-    <x:t>1230202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230346</x:t>
   </x:si>
   <x:si>
@@ -196,6 +187,15 @@
   </x:si>
   <x:si>
     <x:t>Waleyeldeen Ahmed Hussein Mahmoud Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ايهاب سمير عفيفى مصطفى الشاهد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOUSSEF EHAB SAMIR AFIFY</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -621,7 +621,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.230625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.530625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -988,7 +988,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4200563657</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1020,7 +1020,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1048,11 +1048,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.6746902431</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1075,14 +1073,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.6746902431</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1114,7 +1114,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.4999330671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1146,7 +1146,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4999330671</x:v>
+        <x:v>45907.4150904282</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1178,7 +1178,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4150904282</x:v>
+        <x:v>45907.5145669792</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1210,7 +1210,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.5145669792</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1242,7 +1242,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1274,7 +1274,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45928.8972796296</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>

--- a/downloaded_files/EECS112_Tutorial-35291.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35291.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -178,6 +178,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ehab Saad Abdelkader Khalil Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم أيمن عمران عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Ayman Omran Abdallah</x:t>
   </x:si>
   <x:si>
     <x:t>1230279</x:t>
@@ -311,7 +320,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -611,7 +620,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1242,7 +1251,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45929.258268287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.8972796296</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1291,6 +1300,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45928.8972796296</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS112_Tutorial-35291.xlsx
+++ b/downloaded_files/EECS112_Tutorial-35291.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,6 +109,15 @@
   </x:si>
   <x:si>
     <x:t>Salma Amr Ahmed Youssef Elsherbiny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن احمد يحيى احمد صبري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Yehia Ahmed Sabry</x:t>
   </x:si>
   <x:si>
     <x:t>1230346</x:t>
@@ -320,7 +329,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -620,7 +629,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -997,7 +1006,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6656820602</x:v>
+        <x:v>45928.9547305556</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1029,7 +1038,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6664400463</x:v>
+        <x:v>45907.6656820602</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1057,9 +1066,11 @@
       <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
+      <x:c r="D13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6746902431</x:v>
+        <x:v>45907.6664400463</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1082,16 +1093,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45907.4201239931</x:v>
+        <x:v>45907.6746902431</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4999330671</x:v>
+        <x:v>45907.4201239931</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4150904282</x:v>
+        <x:v>45907.4999330671</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.5145669792</x:v>
+        <x:v>45907.4150904282</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.420866169</x:v>
+        <x:v>45907.5145669792</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45929.258268287</x:v>
+        <x:v>45907.420866169</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651647801</x:v>
+        <x:v>45929.258268287</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.8972796296</x:v>
+        <x:v>45907.6651647801</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1332,6 +1341,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45928.8972796296</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
